--- a/Demo Data.xlsx
+++ b/Demo Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\PycharmProjects\Index rerum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E142AE6-723B-4C94-B270-14331423D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40D2FA-BB29-4BAE-A340-090A5C17816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Терминологическое гнездо</t>
   </si>
@@ -88,11 +88,6 @@
 Философия сознания</t>
   </si>
   <si>
-    <t>Опредление 1;
-Определение 2;
-Определение 3</t>
-  </si>
-  <si>
     <t>Цитата 1;
 Цитата 2;
 Цитата 3</t>
@@ -126,10 +121,6 @@
   <si>
     <t>Ивахненко А. Г., Лапа В. Г. (1965). «Кибернетические предсказывающие устройства»;
 Dechter R. (1986). «Learning while Searching in Constraint-satisfaction Problems»</t>
-  </si>
-  <si>
-    <t>Опредление 1;
-Определение 2</t>
   </si>
   <si>
     <t>Цитата 1;
@@ -213,6 +204,44 @@
   </si>
   <si>
     <t>Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение Определение</t>
+  </si>
+  <si>
+    <t>Определение 1;
+Определение 2</t>
+  </si>
+  <si>
+    <t>Определение 1;
+Определение 2;
+Определение 3</t>
+  </si>
+  <si>
+    <t>Макс Мор (Max More)</t>
+  </si>
+  <si>
+    <t>Экстропия</t>
+  </si>
+  <si>
+    <t>extropy</t>
+  </si>
+  <si>
+    <t>футурология;
+искусственный интеллект;
+ии;
+роботика;
+простетика;
+нанотехнологии;
+биотехнологии;
+генная инженерия;
+биоэтика</t>
+  </si>
+  <si>
+    <t>More M. (2003). "Principles of Extropy (Version 3.11): An evolving framework of values and standards for continuously improving the human condition". Extropy Institute;
+More M., Vita-More N. (eds.) (2013). «The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future»;
+Tomasson B., Pellissier H. (2010). The Extropist Manifesto. The Extropist Examiner (blog). URL: https://extropism.tumblr.com/post/393563122/the-extropist-manifesto</t>
+  </si>
+  <si>
+    <t>The Extropy Institute (closed in 2006);
+Institute for Ethics and Emerging Technologies (IEET). URL: https://ieet.org/</t>
   </si>
 </sst>
 </file>
@@ -592,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,13 +644,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -642,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -650,35 +679,35 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
@@ -708,74 +737,105 @@
         <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Demo Data.xlsx
+++ b/Demo Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\PycharmProjects\Index rerum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40D2FA-BB29-4BAE-A340-090A5C17816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A6295-9E5B-44FE-9A58-AE938B6A9791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
 ANN</t>
   </si>
   <si>
-    <t>Искусственная сеть;
-Нейронная сеть</t>
-  </si>
-  <si>
     <t>Künstliche neuronale Netze;
 Künstliche neuronale Netzwerke</t>
   </si>
@@ -96,10 +92,6 @@
     <t>Искусственный интеллект и информатика</t>
   </si>
   <si>
-    <t>Машинное обучение;
-Нейронная сеть</t>
-  </si>
-  <si>
     <t>Глубинное обучение</t>
   </si>
   <si>
@@ -155,11 +147,6 @@
 TALN</t>
   </si>
   <si>
-    <t>Машинное обучение;
-глубинное обучение;
-нейронная сеть</t>
-  </si>
-  <si>
     <t>Ноам Хомский (Noam Chomsky);
 Уильям Вудс (William Woods);
 Роджер Шанк (Roger Schank)</t>
@@ -195,10 +182,6 @@
     <t>Turing Test</t>
   </si>
   <si>
-    <t>Сильный/слабый ИИ;
-интеллектуальный взрыв</t>
-  </si>
-  <si>
     <t>Цитата 1;
 Цитата 2</t>
   </si>
@@ -221,20 +204,6 @@
     <t>Экстропия</t>
   </si>
   <si>
-    <t>extropy</t>
-  </si>
-  <si>
-    <t>футурология;
-искусственный интеллект;
-ии;
-роботика;
-простетика;
-нанотехнологии;
-биотехнологии;
-генная инженерия;
-биоэтика</t>
-  </si>
-  <si>
     <t>More M. (2003). "Principles of Extropy (Version 3.11): An evolving framework of values and standards for continuously improving the human condition". Extropy Institute;
 More M., Vita-More N. (eds.) (2013). «The transhumanist reader: classical and contemporary essays on the science, technology, and philosophy of the human future»;
 Tomasson B., Pellissier H. (2010). The Extropist Manifesto. The Extropist Examiner (blog). URL: https://extropism.tumblr.com/post/393563122/the-extropist-manifesto</t>
@@ -242,6 +211,36 @@
   <si>
     <t>The Extropy Institute (closed in 2006);
 Institute for Ethics and Emerging Technologies (IEET). URL: https://ieet.org/</t>
+  </si>
+  <si>
+    <t>(Искусственная) нейронная сеть</t>
+  </si>
+  <si>
+    <t>Машинное обучение;
+(Искусственная) нейронная сеть</t>
+  </si>
+  <si>
+    <t>Сильный/слабый ИИ;
+Интеллектуальный взрыв</t>
+  </si>
+  <si>
+    <t>Машинное обучение;
+Глубинное обучение;
+(Искусственная) нейронная сеть</t>
+  </si>
+  <si>
+    <t>Футурология;
+Искусственный интеллект;
+ИИ;
+Роботика;
+Простетика;
+Нанотехнологии;
+Биотехнологии;
+Генная инженерия;
+Биоэтика</t>
+  </si>
+  <si>
+    <t>Extropy</t>
   </si>
 </sst>
 </file>
@@ -623,9 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -644,13 +641,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -671,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -679,163 +676,163 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="145" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
+      <c r="A6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
